--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -583,14 +583,18 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>0</v>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -613,14 +617,18 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="O4" t="b">
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -643,14 +651,18 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="O5" t="b">
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -701,14 +713,18 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="O6" t="b">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -755,14 +771,18 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="O7" t="b">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" t="b">
         <v>0</v>
       </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -809,10 +829,10 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="O8" t="b">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" t="b">
         <v>0</v>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -871,10 +891,10 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="O9" t="b">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" t="b">
         <v>0</v>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -933,10 +953,10 @@
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="O10" t="b">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" t="b">
         <v>0</v>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1041,10 +1061,10 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="O12" t="b">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" t="b">
         <v>0</v>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1095,10 +1115,10 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="O13" t="b">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1157,10 +1177,10 @@
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="O14" t="b">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" t="b">
         <v>0</v>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1219,10 +1239,10 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="O15" t="b">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" t="b">
         <v>0</v>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1335,16 +1355,16 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; to</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1405,14 +1425,18 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="O18" t="b">
         <v>1</v>
       </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>Proposed</t>
